--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.163122333333333</v>
+        <v>2.619259</v>
       </c>
       <c r="H2">
-        <v>6.489367</v>
+        <v>7.857777</v>
       </c>
       <c r="I2">
-        <v>0.01676099918657832</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="J2">
-        <v>0.01676099918657833</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N2">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O2">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P2">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q2">
-        <v>0.3597481542158889</v>
+        <v>3.704032099540667</v>
       </c>
       <c r="R2">
-        <v>3.237733387943</v>
+        <v>33.33628889586601</v>
       </c>
       <c r="S2">
-        <v>4.880043401853358E-05</v>
+        <v>0.0003630548438891603</v>
       </c>
       <c r="T2">
-        <v>4.880043401853358E-05</v>
+        <v>0.0003630548438891603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.163122333333333</v>
+        <v>2.619259</v>
       </c>
       <c r="H3">
-        <v>6.489367</v>
+        <v>7.857777</v>
       </c>
       <c r="I3">
-        <v>0.01676099918657832</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="J3">
-        <v>0.01676099918657833</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N3">
         <v>119.714039</v>
       </c>
       <c r="O3">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P3">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q3">
-        <v>86.31870379147922</v>
+        <v>104.5206913590336</v>
       </c>
       <c r="R3">
-        <v>776.8683341233129</v>
+        <v>940.686222231303</v>
       </c>
       <c r="S3">
-        <v>0.01170927539050978</v>
+        <v>0.01024471232018935</v>
       </c>
       <c r="T3">
-        <v>0.01170927539050979</v>
+        <v>0.01024471232018935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.163122333333333</v>
+        <v>2.619259</v>
       </c>
       <c r="H4">
-        <v>6.489367</v>
+        <v>7.857777</v>
       </c>
       <c r="I4">
-        <v>0.01676099918657832</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="J4">
-        <v>0.01676099918657833</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N4">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O4">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P4">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q4">
-        <v>0.5851029599433335</v>
+        <v>2.368155878188</v>
       </c>
       <c r="R4">
-        <v>5.265926639490001</v>
+        <v>21.313402903692</v>
       </c>
       <c r="S4">
-        <v>7.937018732729397E-05</v>
+        <v>0.000232117443789799</v>
       </c>
       <c r="T4">
-        <v>7.937018732729397E-05</v>
+        <v>0.000232117443789799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.163122333333333</v>
+        <v>2.619259</v>
       </c>
       <c r="H5">
-        <v>6.489367</v>
+        <v>7.857777</v>
       </c>
       <c r="I5">
-        <v>0.01676099918657832</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="J5">
-        <v>0.01676099918657833</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N5">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O5">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P5">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q5">
-        <v>3.033620443528889</v>
+        <v>3.475282607121</v>
       </c>
       <c r="R5">
-        <v>27.30258399176</v>
+        <v>31.277543464089</v>
       </c>
       <c r="S5">
-        <v>0.0004115156465899877</v>
+        <v>0.000340633706861097</v>
       </c>
       <c r="T5">
-        <v>0.0004115156465899877</v>
+        <v>0.0003406337068610969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.163122333333333</v>
+        <v>2.619259</v>
       </c>
       <c r="H6">
-        <v>6.489367</v>
+        <v>7.857777</v>
       </c>
       <c r="I6">
-        <v>0.01676099918657832</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="J6">
-        <v>0.01676099918657833</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N6">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O6">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P6">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q6">
-        <v>32.19356077431622</v>
+        <v>69.04025783786834</v>
       </c>
       <c r="R6">
-        <v>289.742046968846</v>
+        <v>621.3623205408151</v>
       </c>
       <c r="S6">
-        <v>0.004367109935040441</v>
+        <v>0.006767057994584606</v>
       </c>
       <c r="T6">
-        <v>0.004367109935040442</v>
+        <v>0.006767057994584605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.163122333333333</v>
+        <v>2.619259</v>
       </c>
       <c r="H7">
-        <v>6.489367</v>
+        <v>7.857777</v>
       </c>
       <c r="I7">
-        <v>0.01676099918657832</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="J7">
-        <v>0.01676099918657833</v>
+        <v>0.01811146726372559</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N7">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O7">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P7">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q7">
-        <v>1.068380541248889</v>
+        <v>1.672081687333667</v>
       </c>
       <c r="R7">
-        <v>9.61542487124</v>
+        <v>15.048735186003</v>
       </c>
       <c r="S7">
-        <v>0.0001449275930922868</v>
+        <v>0.00016389095441158</v>
       </c>
       <c r="T7">
-        <v>0.0001449275930922869</v>
+        <v>0.0001638909544115799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>0.170841</v>
       </c>
       <c r="I8">
-        <v>0.0004412550348954263</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="J8">
-        <v>0.0004412550348954264</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N8">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O8">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P8">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q8">
-        <v>0.009470836587666667</v>
+        <v>0.08053175190866665</v>
       </c>
       <c r="R8">
-        <v>0.08523752928900001</v>
+        <v>0.724785767178</v>
       </c>
       <c r="S8">
-        <v>1.284734697260965E-06</v>
+        <v>7.893409622704748E-06</v>
       </c>
       <c r="T8">
-        <v>1.284734697260965E-06</v>
+        <v>7.893409622704746E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.170841</v>
       </c>
       <c r="I9">
-        <v>0.0004412550348954263</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="J9">
-        <v>0.0004412550348954264</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N9">
         <v>119.714039</v>
       </c>
       <c r="O9">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P9">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q9">
-        <v>2.272451792977667</v>
+        <v>2.272451792977666</v>
       </c>
       <c r="R9">
         <v>20.452066136799</v>
       </c>
       <c r="S9">
-        <v>0.0003082618562010874</v>
+        <v>0.0002227369009700158</v>
       </c>
       <c r="T9">
-        <v>0.0003082618562010875</v>
+        <v>0.0002227369009700158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>0.170841</v>
       </c>
       <c r="I10">
-        <v>0.0004412550348954263</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="J10">
-        <v>0.0004412550348954264</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N10">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O10">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P10">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q10">
-        <v>0.01540359403000001</v>
+        <v>0.051487605004</v>
       </c>
       <c r="R10">
-        <v>0.13863234627</v>
+        <v>0.463388445036</v>
       </c>
       <c r="S10">
-        <v>2.089523088027265E-06</v>
+        <v>5.046615119580646E-06</v>
       </c>
       <c r="T10">
-        <v>2.089523088027265E-06</v>
+        <v>5.046615119580644E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.170841</v>
       </c>
       <c r="I11">
-        <v>0.0004412550348954263</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="J11">
-        <v>0.0004412550348954264</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N11">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O11">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P11">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q11">
-        <v>0.07986399138666668</v>
+        <v>0.075558361593</v>
       </c>
       <c r="R11">
-        <v>0.7187759224800001</v>
+        <v>0.680025254337</v>
       </c>
       <c r="S11">
-        <v>1.083368294304823E-05</v>
+        <v>7.405937215303597E-06</v>
       </c>
       <c r="T11">
-        <v>1.083368294304823E-05</v>
+        <v>7.405937215303596E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.170841</v>
       </c>
       <c r="I12">
-        <v>0.0004412550348954263</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="J12">
-        <v>0.0004412550348954264</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N12">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O12">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P12">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q12">
-        <v>0.8475372276286666</v>
+        <v>1.501048793988333</v>
       </c>
       <c r="R12">
-        <v>7.627835048658</v>
+        <v>13.509439145895</v>
       </c>
       <c r="S12">
-        <v>0.0001149698311734017</v>
+        <v>0.0001471269743151057</v>
       </c>
       <c r="T12">
-        <v>0.0001149698311734017</v>
+        <v>0.0001471269743151057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,40 +1231,40 @@
         <v>0.170841</v>
       </c>
       <c r="I13">
-        <v>0.0004412550348954263</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="J13">
-        <v>0.0004412550348954264</v>
+        <v>0.0003937730962334694</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N13">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O13">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P13">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q13">
-        <v>0.02812650294666667</v>
+        <v>0.03635380687766666</v>
       </c>
       <c r="R13">
-        <v>0.2531385265200001</v>
+        <v>0.327184261899</v>
       </c>
       <c r="S13">
-        <v>3.815406792600785E-06</v>
+        <v>3.56325899075893E-06</v>
       </c>
       <c r="T13">
-        <v>3.815406792600786E-06</v>
+        <v>3.563258990758929E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.87595</v>
+        <v>80.85464333333333</v>
       </c>
       <c r="H14">
-        <v>116.62785</v>
+        <v>242.56393</v>
       </c>
       <c r="I14">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="J14">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N14">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O14">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P14">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q14">
-        <v>6.465446285849999</v>
+        <v>114.3408094822155</v>
       </c>
       <c r="R14">
-        <v>58.18901657265</v>
+        <v>1029.06728533994</v>
       </c>
       <c r="S14">
-        <v>0.0008770485162340843</v>
+        <v>0.01120724216776465</v>
       </c>
       <c r="T14">
-        <v>0.0008770485162340845</v>
+        <v>0.01120724216776465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.87595</v>
+        <v>80.85464333333333</v>
       </c>
       <c r="H15">
-        <v>116.62785</v>
+        <v>242.56393</v>
       </c>
       <c r="I15">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="J15">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N15">
         <v>119.714039</v>
       </c>
       <c r="O15">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P15">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q15">
-        <v>1551.33233148735</v>
+        <v>3226.478641779252</v>
       </c>
       <c r="R15">
-        <v>13961.99098338615</v>
+        <v>29038.30777601327</v>
       </c>
       <c r="S15">
-        <v>0.2104408047584713</v>
+        <v>0.3162469082673822</v>
       </c>
       <c r="T15">
-        <v>0.2104408047584713</v>
+        <v>0.3162469082673822</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.87595</v>
+        <v>80.85464333333333</v>
       </c>
       <c r="H16">
-        <v>116.62785</v>
+        <v>242.56393</v>
       </c>
       <c r="I16">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="J16">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N16">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O16">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P16">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q16">
-        <v>10.5155557155</v>
+        <v>73.10327038625333</v>
       </c>
       <c r="R16">
-        <v>94.64000143950001</v>
+        <v>657.92943347628</v>
       </c>
       <c r="S16">
-        <v>0.001426452580364085</v>
+        <v>0.007165298708172519</v>
       </c>
       <c r="T16">
-        <v>0.001426452580364085</v>
+        <v>0.007165298708172518</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.87595</v>
+        <v>80.85464333333333</v>
       </c>
       <c r="H17">
-        <v>116.62785</v>
+        <v>242.56393</v>
       </c>
       <c r="I17">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="J17">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N17">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O17">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P17">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q17">
-        <v>54.520668972</v>
+        <v>107.27947701289</v>
       </c>
       <c r="R17">
-        <v>490.686020748</v>
+        <v>965.51529311601</v>
       </c>
       <c r="S17">
-        <v>0.007395819207505152</v>
+        <v>0.01051511777780098</v>
       </c>
       <c r="T17">
-        <v>0.007395819207505154</v>
+        <v>0.01051511777780098</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.87595</v>
+        <v>80.85464333333333</v>
       </c>
       <c r="H18">
-        <v>116.62785</v>
+        <v>242.56393</v>
       </c>
       <c r="I18">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="J18">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N18">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O18">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P18">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q18">
-        <v>578.5873686836999</v>
+        <v>2131.223152472594</v>
       </c>
       <c r="R18">
-        <v>5207.286318153299</v>
+        <v>19181.00837225335</v>
       </c>
       <c r="S18">
-        <v>0.0784863365621649</v>
+        <v>0.2088942180090324</v>
       </c>
       <c r="T18">
-        <v>0.07848633656216492</v>
+        <v>0.2088942180090324</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.87595</v>
+        <v>80.85464333333333</v>
       </c>
       <c r="H19">
-        <v>116.62785</v>
+        <v>242.56393</v>
       </c>
       <c r="I19">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="J19">
-        <v>0.3012311214610576</v>
+        <v>0.559087980933491</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N19">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O19">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P19">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q19">
-        <v>19.201090878</v>
+        <v>51.61596025958556</v>
       </c>
       <c r="R19">
-        <v>172.809817902</v>
+        <v>464.54364233627</v>
       </c>
       <c r="S19">
-        <v>0.002604659836318129</v>
+        <v>0.005059196003338306</v>
       </c>
       <c r="T19">
-        <v>0.002604659836318129</v>
+        <v>0.005059196003338306</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08940266666666667</v>
+        <v>51.75180833333334</v>
       </c>
       <c r="H20">
-        <v>0.268208</v>
+        <v>155.255425</v>
       </c>
       <c r="I20">
-        <v>0.0006927384550502074</v>
+        <v>0.3578497515777431</v>
       </c>
       <c r="J20">
-        <v>0.0006927384550502075</v>
+        <v>0.357849751577743</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N20">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O20">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P20">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q20">
-        <v>0.01486852769244444</v>
+        <v>73.18495775940556</v>
       </c>
       <c r="R20">
-        <v>0.133816749232</v>
+        <v>658.66461983465</v>
       </c>
       <c r="S20">
-        <v>2.016940451548334E-06</v>
+        <v>0.007173305387302318</v>
       </c>
       <c r="T20">
-        <v>2.016940451548334E-06</v>
+        <v>0.007173305387302317</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08940266666666667</v>
+        <v>51.75180833333334</v>
       </c>
       <c r="H21">
-        <v>0.268208</v>
+        <v>155.255425</v>
       </c>
       <c r="I21">
-        <v>0.0006927384550502074</v>
+        <v>0.3578497515777431</v>
       </c>
       <c r="J21">
-        <v>0.0006927384550502075</v>
+        <v>0.357849751577743</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N21">
         <v>119.714039</v>
       </c>
       <c r="O21">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P21">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q21">
-        <v>3.567584774679111</v>
+        <v>2065.139333712397</v>
       </c>
       <c r="R21">
-        <v>32.108262972112</v>
+        <v>18586.25400341157</v>
       </c>
       <c r="S21">
-        <v>0.0004839487940715709</v>
+        <v>0.2024169386931868</v>
       </c>
       <c r="T21">
-        <v>0.000483948794071571</v>
+        <v>0.2024169386931867</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08940266666666667</v>
+        <v>51.75180833333334</v>
       </c>
       <c r="H22">
-        <v>0.268208</v>
+        <v>155.255425</v>
       </c>
       <c r="I22">
-        <v>0.0006927384550502074</v>
+        <v>0.3578497515777431</v>
       </c>
       <c r="J22">
-        <v>0.0006927384550502075</v>
+        <v>0.357849751577743</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N22">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O22">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P22">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q22">
-        <v>0.02418252730666667</v>
+        <v>46.79046597203334</v>
       </c>
       <c r="R22">
-        <v>0.21764274576</v>
+        <v>421.1141937483</v>
       </c>
       <c r="S22">
-        <v>3.280399953135469E-06</v>
+        <v>0.004586219790342594</v>
       </c>
       <c r="T22">
-        <v>3.280399953135469E-06</v>
+        <v>0.004586219790342592</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08940266666666667</v>
+        <v>51.75180833333334</v>
       </c>
       <c r="H23">
-        <v>0.268208</v>
+        <v>155.255425</v>
       </c>
       <c r="I23">
-        <v>0.0006927384550502074</v>
+        <v>0.3578497515777431</v>
       </c>
       <c r="J23">
-        <v>0.0006927384550502075</v>
+        <v>0.357849751577743</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N23">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O23">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P23">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q23">
-        <v>0.1253806838044444</v>
+        <v>68.665282581025</v>
       </c>
       <c r="R23">
-        <v>1.12842615424</v>
+        <v>617.987543229225</v>
       </c>
       <c r="S23">
-        <v>1.700809779144983E-05</v>
+        <v>0.006730304375912555</v>
       </c>
       <c r="T23">
-        <v>1.700809779144983E-05</v>
+        <v>0.006730304375912552</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08940266666666667</v>
+        <v>51.75180833333334</v>
       </c>
       <c r="H24">
-        <v>0.268208</v>
+        <v>155.255425</v>
       </c>
       <c r="I24">
-        <v>0.0006927384550502074</v>
+        <v>0.3578497515777431</v>
       </c>
       <c r="J24">
-        <v>0.0006927384550502075</v>
+        <v>0.357849751577743</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N24">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O24">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P24">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q24">
-        <v>1.330572080167111</v>
+        <v>1364.11030406282</v>
       </c>
       <c r="R24">
-        <v>11.975148721504</v>
+        <v>12276.99273656538</v>
       </c>
       <c r="S24">
-        <v>0.000180494310378397</v>
+        <v>0.1337047952555641</v>
       </c>
       <c r="T24">
-        <v>0.000180494310378397</v>
+        <v>0.1337047952555641</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08940266666666667</v>
+        <v>51.75180833333334</v>
       </c>
       <c r="H25">
-        <v>0.268208</v>
+        <v>155.255425</v>
       </c>
       <c r="I25">
-        <v>0.0006927384550502074</v>
+        <v>0.3578497515777431</v>
       </c>
       <c r="J25">
-        <v>0.0006927384550502075</v>
+        <v>0.357849751577743</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N25">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O25">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P25">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q25">
-        <v>0.04415657308444445</v>
+        <v>33.03730215323056</v>
       </c>
       <c r="R25">
-        <v>0.39740915776</v>
+        <v>297.335719379075</v>
       </c>
       <c r="S25">
-        <v>5.989912404105989E-06</v>
+        <v>0.003238188075434754</v>
       </c>
       <c r="T25">
-        <v>5.98991240410599E-06</v>
+        <v>0.003238188075434753</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>76.97819666666668</v>
+        <v>9.336160999999999</v>
       </c>
       <c r="H26">
-        <v>230.93459</v>
+        <v>28.008483</v>
       </c>
       <c r="I26">
-        <v>0.5964671862668268</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="J26">
-        <v>0.5964671862668269</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N26">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O26">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P26">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q26">
-        <v>12.80221822823445</v>
+        <v>13.20275697457933</v>
       </c>
       <c r="R26">
-        <v>115.21996405411</v>
+        <v>118.824812771214</v>
       </c>
       <c r="S26">
-        <v>0.001736642144278803</v>
+        <v>0.001294082973229859</v>
       </c>
       <c r="T26">
-        <v>0.001736642144278804</v>
+        <v>0.001294082973229859</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>76.97819666666668</v>
+        <v>9.336160999999999</v>
       </c>
       <c r="H27">
-        <v>230.93459</v>
+        <v>28.008483</v>
       </c>
       <c r="I27">
-        <v>0.5964671862668268</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="J27">
-        <v>0.5964671862668269</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N27">
         <v>119.714039</v>
       </c>
       <c r="O27">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P27">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q27">
-        <v>3071.790279301002</v>
+        <v>372.5565140214262</v>
       </c>
       <c r="R27">
-        <v>27646.11251370901</v>
+        <v>3353.008626192836</v>
       </c>
       <c r="S27">
-        <v>0.4166934481443979</v>
+        <v>0.03651654289246358</v>
       </c>
       <c r="T27">
-        <v>0.416693448144398</v>
+        <v>0.03651654289246358</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>76.97819666666668</v>
+        <v>9.336160999999999</v>
       </c>
       <c r="H28">
-        <v>230.93459</v>
+        <v>28.008483</v>
       </c>
       <c r="I28">
-        <v>0.5964671862668268</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="J28">
-        <v>0.5964671862668269</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N28">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O28">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P28">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q28">
-        <v>20.82183241636668</v>
+        <v>8.441121917252</v>
       </c>
       <c r="R28">
-        <v>187.3964917473</v>
+        <v>75.970097255268</v>
       </c>
       <c r="S28">
-        <v>0.002824516115154503</v>
+        <v>0.0008273659940196878</v>
       </c>
       <c r="T28">
-        <v>0.002824516115154503</v>
+        <v>0.0008273659940196877</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>76.97819666666668</v>
+        <v>9.336160999999999</v>
       </c>
       <c r="H29">
-        <v>230.93459</v>
+        <v>28.008483</v>
       </c>
       <c r="I29">
-        <v>0.5964671862668268</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="J29">
-        <v>0.5964671862668269</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N29">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O29">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P29">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q29">
-        <v>107.9562757572445</v>
+        <v>12.387395801859</v>
       </c>
       <c r="R29">
-        <v>971.6064818152</v>
+        <v>111.486562216731</v>
       </c>
       <c r="S29">
-        <v>0.01464444792902662</v>
+        <v>0.001214164437072472</v>
       </c>
       <c r="T29">
-        <v>0.01464444792902662</v>
+        <v>0.001214164437072472</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>76.97819666666668</v>
+        <v>9.336160999999999</v>
       </c>
       <c r="H30">
-        <v>230.93459</v>
+        <v>28.008483</v>
       </c>
       <c r="I30">
-        <v>0.5964671862668268</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="J30">
-        <v>0.5964671862668269</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N30">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O30">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P30">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q30">
-        <v>1145.659778227491</v>
+        <v>246.0890513904317</v>
       </c>
       <c r="R30">
-        <v>10310.93800404742</v>
+        <v>2214.801462513885</v>
       </c>
       <c r="S30">
-        <v>0.1554106498112206</v>
+        <v>0.02412069327003515</v>
       </c>
       <c r="T30">
-        <v>0.1554106498112206</v>
+        <v>0.02412069327003515</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>76.97819666666668</v>
+        <v>9.336160999999999</v>
       </c>
       <c r="H31">
-        <v>230.93459</v>
+        <v>28.008483</v>
       </c>
       <c r="I31">
-        <v>0.5964671862668268</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="J31">
-        <v>0.5964671862668269</v>
+        <v>0.06455702712880686</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N31">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O31">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P31">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q31">
-        <v>38.02004452164445</v>
+        <v>5.960015347126332</v>
       </c>
       <c r="R31">
-        <v>342.1804006948</v>
+        <v>53.640138124137</v>
       </c>
       <c r="S31">
-        <v>0.005157482122748505</v>
+        <v>0.0005841775619861078</v>
       </c>
       <c r="T31">
-        <v>0.005157482122748506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>10.89326566666667</v>
-      </c>
-      <c r="H32">
-        <v>32.679797</v>
-      </c>
-      <c r="I32">
-        <v>0.08440669959559149</v>
-      </c>
-      <c r="J32">
-        <v>0.08440669959559151</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M32">
-        <v>0.1663096666666667</v>
-      </c>
-      <c r="N32">
-        <v>0.498929</v>
-      </c>
-      <c r="O32">
-        <v>0.002911546828163527</v>
-      </c>
-      <c r="P32">
-        <v>0.002911546828163527</v>
-      </c>
-      <c r="Q32">
-        <v>1.811655381934778</v>
-      </c>
-      <c r="R32">
-        <v>16.304898437413</v>
-      </c>
-      <c r="S32">
-        <v>0.0002457540584832961</v>
-      </c>
-      <c r="T32">
-        <v>0.0002457540584832961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>10.89326566666667</v>
-      </c>
-      <c r="H33">
-        <v>32.679797</v>
-      </c>
-      <c r="I33">
-        <v>0.08440669959559149</v>
-      </c>
-      <c r="J33">
-        <v>0.08440669959559151</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>39.90467966666667</v>
-      </c>
-      <c r="N33">
-        <v>119.714039</v>
-      </c>
-      <c r="O33">
-        <v>0.6986024675597025</v>
-      </c>
-      <c r="P33">
-        <v>0.6986024675597025</v>
-      </c>
-      <c r="Q33">
-        <v>434.6922769522315</v>
-      </c>
-      <c r="R33">
-        <v>3912.230492570083</v>
-      </c>
-      <c r="S33">
-        <v>0.05896672861605076</v>
-      </c>
-      <c r="T33">
-        <v>0.05896672861605077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>10.89326566666667</v>
-      </c>
-      <c r="H34">
-        <v>32.679797</v>
-      </c>
-      <c r="I34">
-        <v>0.08440669959559149</v>
-      </c>
-      <c r="J34">
-        <v>0.08440669959559151</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.2704900000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.8114700000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.004735409055496589</v>
-      </c>
-      <c r="P34">
-        <v>0.004735409055496589</v>
-      </c>
-      <c r="Q34">
-        <v>2.946519430176667</v>
-      </c>
-      <c r="R34">
-        <v>26.51867487159</v>
-      </c>
-      <c r="S34">
-        <v>0.0003997002496095443</v>
-      </c>
-      <c r="T34">
-        <v>0.0003997002496095443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>10.89326566666667</v>
-      </c>
-      <c r="H35">
-        <v>32.679797</v>
-      </c>
-      <c r="I35">
-        <v>0.08440669959559149</v>
-      </c>
-      <c r="J35">
-        <v>0.08440669959559151</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.402426666666667</v>
-      </c>
-      <c r="N35">
-        <v>4.20728</v>
-      </c>
-      <c r="O35">
-        <v>0.02455197581057795</v>
-      </c>
-      <c r="P35">
-        <v>0.02455197581057795</v>
-      </c>
-      <c r="Q35">
-        <v>15.27700625801778</v>
-      </c>
-      <c r="R35">
-        <v>137.49305632216</v>
-      </c>
-      <c r="S35">
-        <v>0.002072351246721682</v>
-      </c>
-      <c r="T35">
-        <v>0.002072351246721682</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>10.89326566666667</v>
-      </c>
-      <c r="H36">
-        <v>32.679797</v>
-      </c>
-      <c r="I36">
-        <v>0.08440669959559149</v>
-      </c>
-      <c r="J36">
-        <v>0.08440669959559151</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>14.88291266666666</v>
-      </c>
-      <c r="N36">
-        <v>44.64873799999999</v>
-      </c>
-      <c r="O36">
-        <v>0.2605518851487973</v>
-      </c>
-      <c r="P36">
-        <v>0.2605518851487973</v>
-      </c>
-      <c r="Q36">
-        <v>162.1235215717984</v>
-      </c>
-      <c r="R36">
-        <v>1459.111694146186</v>
-      </c>
-      <c r="S36">
-        <v>0.02199232469881959</v>
-      </c>
-      <c r="T36">
-        <v>0.0219923246988196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>10.89326566666667</v>
-      </c>
-      <c r="H37">
-        <v>32.679797</v>
-      </c>
-      <c r="I37">
-        <v>0.08440669959559149</v>
-      </c>
-      <c r="J37">
-        <v>0.08440669959559151</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.4939066666666667</v>
-      </c>
-      <c r="N37">
-        <v>1.48172</v>
-      </c>
-      <c r="O37">
-        <v>0.00864671559726226</v>
-      </c>
-      <c r="P37">
-        <v>0.00864671559726226</v>
-      </c>
-      <c r="Q37">
-        <v>5.380256534537778</v>
-      </c>
-      <c r="R37">
-        <v>48.42230881084001</v>
-      </c>
-      <c r="S37">
-        <v>0.0007298407259066311</v>
-      </c>
-      <c r="T37">
-        <v>0.0007298407259066312</v>
+        <v>0.0005841775619861077</v>
       </c>
     </row>
   </sheetData>
